--- a/signal_output/genx_signals.xlsx
+++ b/signal_output/genx_signals.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,12 +535,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 21:28</t>
+          <t>2025-09-29 18:00</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>XAUAUD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -549,24 +549,24 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>4064.91481</v>
+        <v>0.88098</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>4064.91121</v>
+        <v>0.876</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4064.91896</v>
+        <v>0.88695</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>0.01</v>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>84.0%</t>
+          <t>79.0%</t>
         </is>
       </c>
       <c r="I2" s="2" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
@@ -577,40 +577,124 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2025-07-28 20:55</t>
+          <t>2025-09-29 18:33</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>XAUGBP</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
+          <t>XAUCHF</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>2329.17421</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>2329.16976</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>2329.18155</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>85.0%</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-29 18:01</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>148.83231</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>148.48792</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>149.68426</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>94.0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>2025-09-29 18:21</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>USDCAD</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>SELL</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>2109.70362</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>2109.7061</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>2109.69605</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>84.0%</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
+      <c r="D5" s="2" t="n">
+        <v>1.36493</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>1.36718</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>1.3575</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>89.0%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
@@ -659,7 +743,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -669,7 +753,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -679,7 +763,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +774,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>83.5%</t>
+          <t>86.1%</t>
         </is>
       </c>
     </row>
@@ -702,7 +786,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>2.06</t>
         </is>
       </c>
     </row>
@@ -714,7 +798,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-07-28 21:07:35</t>
+          <t>2025-09-29 18:30:51</t>
         </is>
       </c>
     </row>
@@ -792,12 +876,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-28 21:19</t>
+          <t>2025-09-29 18:31</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>XAUUSD</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -806,22 +890,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2638.81797</v>
+        <v>150.10361</v>
       </c>
       <c r="E2" t="n">
-        <v>2638.81536</v>
+        <v>149.8168</v>
       </c>
       <c r="F2" t="n">
-        <v>2638.82472</v>
+        <v>150.62444</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="H2" t="n">
-        <v>0.91</v>
+        <v>0.76</v>
       </c>
       <c r="I2" t="n">
-        <v>2.59</v>
+        <v>1.82</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -832,92 +916,92 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-28 20:56</t>
+          <t>2025-09-29 18:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5863</v>
+        <v>0.88098</v>
       </c>
       <c r="E3" t="n">
-        <v>0.58862</v>
+        <v>0.876</v>
       </c>
       <c r="F3" t="n">
-        <v>0.58136</v>
+        <v>0.88695</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H3" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="I3" t="n">
-        <v>2.12</v>
+        <v>1.2</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-28 20:43</t>
+          <t>2025-09-29 18:33</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>XAUCHF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.10395</v>
+        <v>2329.17421</v>
       </c>
       <c r="E4" t="n">
-        <v>1.10659</v>
+        <v>2329.16976</v>
       </c>
       <c r="F4" t="n">
-        <v>1.09987</v>
+        <v>2329.18155</v>
       </c>
       <c r="G4" t="n">
         <v>0.02</v>
       </c>
       <c r="H4" t="n">
-        <v>0.78</v>
+        <v>0.85</v>
       </c>
       <c r="I4" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-28 20:54</t>
+          <t>2025-09-29 18:39</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>XAUCAD</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -926,22 +1010,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3602.6381</v>
+        <v>148.93063</v>
       </c>
       <c r="E5" t="n">
-        <v>3602.64162</v>
+        <v>149.34313</v>
       </c>
       <c r="F5" t="n">
-        <v>3602.63223</v>
+        <v>148.20452</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="I5" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -952,92 +1036,92 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-07-28 21:28</t>
+          <t>2025-09-29 18:56</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>XAUAUD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4064.91481</v>
+        <v>0.88018</v>
       </c>
       <c r="E6" t="n">
-        <v>4064.91121</v>
+        <v>0.8841</v>
       </c>
       <c r="F6" t="n">
-        <v>4064.91896</v>
+        <v>0.87132</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="H6" t="n">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="I6" t="n">
-        <v>1.15</v>
+        <v>2.26</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-07-28 20:55</t>
+          <t>2025-09-29 18:19</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>XAUGBP</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2109.70362</v>
+        <v>1.36641</v>
       </c>
       <c r="E7" t="n">
-        <v>2109.7061</v>
+        <v>1.3636</v>
       </c>
       <c r="F7" t="n">
-        <v>2109.69605</v>
+        <v>1.37381</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.84</v>
+        <v>0.77</v>
       </c>
       <c r="I7" t="n">
-        <v>3.04</v>
+        <v>2.63</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-07-28 20:40</t>
+          <t>2025-09-29 18:01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>XAUCAD</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1046,38 +1130,38 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3637.04486</v>
+        <v>148.83231</v>
       </c>
       <c r="E8" t="n">
-        <v>3637.0413</v>
+        <v>148.48792</v>
       </c>
       <c r="F8" t="n">
-        <v>3637.05461</v>
+        <v>149.68426</v>
       </c>
       <c r="G8" t="n">
         <v>0.09</v>
       </c>
       <c r="H8" t="n">
-        <v>0.77</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>2.75</v>
+        <v>2.47</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-07-28 21:33</t>
+          <t>2025-09-29 18:30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>XAUCHF</t>
+          <t>XAUAUD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1086,22 +1170,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2330.19431</v>
+        <v>4040.64437</v>
       </c>
       <c r="E9" t="n">
-        <v>2330.19843</v>
+        <v>4040.64864</v>
       </c>
       <c r="F9" t="n">
-        <v>2330.18961</v>
+        <v>4040.63628</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="I9" t="n">
-        <v>1.14</v>
+        <v>1.89</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1112,12 +1196,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-07-28 21:19</t>
+          <t>2025-09-29 18:37</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>XAUUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1126,22 +1210,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2654.13881</v>
+        <v>0.58793</v>
       </c>
       <c r="E10" t="n">
-        <v>2654.13442</v>
+        <v>0.58488</v>
       </c>
       <c r="F10" t="n">
-        <v>2654.14534</v>
+        <v>0.59485</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="H10" t="n">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="I10" t="n">
-        <v>1.48</v>
+        <v>2.27</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1152,12 +1236,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-07-28 20:52</t>
+          <t>2025-09-29 18:06</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>XAUEUR</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1166,142 +1250,142 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2414.83832</v>
+        <v>148.95246</v>
       </c>
       <c r="E11" t="n">
-        <v>2414.84059</v>
+        <v>149.32537</v>
       </c>
       <c r="F11" t="n">
-        <v>2414.82938</v>
+        <v>148.47825</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.77</v>
+        <v>0.87</v>
       </c>
       <c r="I11" t="n">
-        <v>3.94</v>
+        <v>1.27</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-07-28 20:59</t>
+          <t>2025-09-29 18:48</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>XAUUSD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.58938</v>
+        <v>2659.183</v>
       </c>
       <c r="E12" t="n">
-        <v>0.59428</v>
+        <v>2659.17822</v>
       </c>
       <c r="F12" t="n">
-        <v>0.58413</v>
+        <v>2659.19248</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="I12" t="n">
-        <v>1.07</v>
+        <v>1.98</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-07-28 21:25</t>
+          <t>2025-09-29 18:21</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.10743</v>
+        <v>1.36493</v>
       </c>
       <c r="E13" t="n">
-        <v>1.10362</v>
+        <v>1.36718</v>
       </c>
       <c r="F13" t="n">
-        <v>1.1122</v>
+        <v>1.3575</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.77</v>
+        <v>0.89</v>
       </c>
       <c r="I13" t="n">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-07-28 21:30</t>
+          <t>2025-09-29 18:51</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>XAUEUR</t>
+          <t>XAUCAD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2412.942</v>
+        <v>3633.91867</v>
       </c>
       <c r="E14" t="n">
-        <v>2412.93763</v>
+        <v>3633.9222</v>
       </c>
       <c r="F14" t="n">
-        <v>2412.94933</v>
+        <v>3633.90959</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="I14" t="n">
-        <v>1.68</v>
+        <v>2.58</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1312,12 +1396,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-28 21:35</t>
+          <t>2025-09-29 18:12</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>XAUCAD</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1326,22 +1410,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.3615</v>
+        <v>3636.96432</v>
       </c>
       <c r="E15" t="n">
-        <v>1.36633</v>
+        <v>3636.96717</v>
       </c>
       <c r="F15" t="n">
-        <v>1.35425</v>
+        <v>3636.96018</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H15" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="I15" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1352,12 +1436,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-28 21:07</t>
+          <t>2025-09-29 18:14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>XAUUSD</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1366,26 +1450,26 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.88156</v>
+        <v>2663.17447</v>
       </c>
       <c r="E16" t="n">
-        <v>0.87934</v>
+        <v>2663.17244</v>
       </c>
       <c r="F16" t="n">
-        <v>0.88597</v>
+        <v>2663.17939</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="I16" t="n">
-        <v>1.99</v>
+        <v>2.42</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>

--- a/signal_output/genx_signals.xlsx
+++ b/signal_output/genx_signals.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,12 +535,12 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2025-09-29 18:00</t>
+          <t>2025-07-28 21:28</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>XAUAUD</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -549,24 +549,24 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.88098</v>
+        <v>4064.91481</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.876</v>
+        <v>4064.91121</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.88695</v>
+        <v>4064.91896</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>0.01</v>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>79.0%</t>
+          <t>84.0%</t>
         </is>
       </c>
       <c r="I2" s="2" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
@@ -577,124 +577,40 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2025-09-29 18:33</t>
+          <t>2025-07-28 20:55</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>XAUCHF</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>BUY</t>
+          <t>XAUGBP</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2329.17421</v>
+        <v>2109.70362</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>2329.16976</v>
+        <v>2109.7061</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2329.18155</v>
+        <v>2109.69605</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>85.0%</t>
+          <t>84.0%</t>
         </is>
       </c>
       <c r="I3" s="2" t="n">
-        <v>1.65</v>
+        <v>3.04</v>
       </c>
       <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>2025-09-29 18:01</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>USDJPY</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>148.83231</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>148.48792</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>149.68426</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>94.0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>2025-09-29 18:21</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>USDCAD</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>1.36493</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>1.36718</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>1.3575</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>89.0%</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
@@ -743,7 +659,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -753,7 +669,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -763,7 +679,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -774,7 +690,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>86.1%</t>
+          <t>83.5%</t>
         </is>
       </c>
     </row>
@@ -786,7 +702,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.93</t>
         </is>
       </c>
     </row>
@@ -798,7 +714,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-09-29 18:30:51</t>
+          <t>2025-07-28 21:07:35</t>
         </is>
       </c>
     </row>
@@ -876,12 +792,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-09-29 18:31</t>
+          <t>2025-07-28 21:19</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>XAUUSD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -890,22 +806,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>150.10361</v>
+        <v>2638.81797</v>
       </c>
       <c r="E2" t="n">
-        <v>149.8168</v>
+        <v>2638.81536</v>
       </c>
       <c r="F2" t="n">
-        <v>150.62444</v>
+        <v>2638.82472</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="H2" t="n">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
       <c r="I2" t="n">
-        <v>1.82</v>
+        <v>2.59</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -916,92 +832,92 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-09-29 18:00</t>
+          <t>2025-07-28 20:56</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.88098</v>
+        <v>0.5863</v>
       </c>
       <c r="E3" t="n">
-        <v>0.876</v>
+        <v>0.58862</v>
       </c>
       <c r="F3" t="n">
-        <v>0.88695</v>
+        <v>0.58136</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.79</v>
+        <v>0.85</v>
       </c>
       <c r="I3" t="n">
-        <v>1.2</v>
+        <v>2.12</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-09-29 18:33</t>
+          <t>2025-07-28 20:43</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>XAUCHF</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2329.17421</v>
+        <v>1.10395</v>
       </c>
       <c r="E4" t="n">
-        <v>2329.16976</v>
+        <v>1.10659</v>
       </c>
       <c r="F4" t="n">
-        <v>2329.18155</v>
+        <v>1.09987</v>
       </c>
       <c r="G4" t="n">
         <v>0.02</v>
       </c>
       <c r="H4" t="n">
-        <v>0.85</v>
+        <v>0.78</v>
       </c>
       <c r="I4" t="n">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-09-29 18:39</t>
+          <t>2025-07-28 20:54</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>XAUCAD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1010,22 +926,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>148.93063</v>
+        <v>3602.6381</v>
       </c>
       <c r="E5" t="n">
-        <v>149.34313</v>
+        <v>3602.64162</v>
       </c>
       <c r="F5" t="n">
-        <v>148.20452</v>
+        <v>3602.63223</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="I5" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -1036,92 +952,92 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-09-29 18:56</t>
+          <t>2025-07-28 21:28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>XAUAUD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.88018</v>
+        <v>4064.91481</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8841</v>
+        <v>4064.91121</v>
       </c>
       <c r="F6" t="n">
-        <v>0.87132</v>
+        <v>4064.91896</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="H6" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="I6" t="n">
-        <v>2.26</v>
+        <v>1.15</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-09-29 18:19</t>
+          <t>2025-07-28 20:55</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>XAUGBP</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.36641</v>
+        <v>2109.70362</v>
       </c>
       <c r="E7" t="n">
-        <v>1.3636</v>
+        <v>2109.7061</v>
       </c>
       <c r="F7" t="n">
-        <v>1.37381</v>
+        <v>2109.69605</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="H7" t="n">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="I7" t="n">
-        <v>2.63</v>
+        <v>3.04</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Active</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-09-29 18:01</t>
+          <t>2025-07-28 20:40</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>XAUCAD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1130,38 +1046,38 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>148.83231</v>
+        <v>3637.04486</v>
       </c>
       <c r="E8" t="n">
-        <v>148.48792</v>
+        <v>3637.0413</v>
       </c>
       <c r="F8" t="n">
-        <v>149.68426</v>
+        <v>3637.05461</v>
       </c>
       <c r="G8" t="n">
         <v>0.09</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="I8" t="n">
-        <v>2.47</v>
+        <v>2.75</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-09-29 18:30</t>
+          <t>2025-07-28 21:33</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>XAUAUD</t>
+          <t>XAUCHF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1170,22 +1086,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4040.64437</v>
+        <v>2330.19431</v>
       </c>
       <c r="E9" t="n">
-        <v>4040.64864</v>
+        <v>2330.19843</v>
       </c>
       <c r="F9" t="n">
-        <v>4040.63628</v>
+        <v>2330.18961</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="H9" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="I9" t="n">
-        <v>1.89</v>
+        <v>1.14</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1196,12 +1112,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-09-29 18:37</t>
+          <t>2025-07-28 21:19</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>XAUUSD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1210,22 +1126,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.58793</v>
+        <v>2654.13881</v>
       </c>
       <c r="E10" t="n">
-        <v>0.58488</v>
+        <v>2654.13442</v>
       </c>
       <c r="F10" t="n">
-        <v>0.59485</v>
+        <v>2654.14534</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="I10" t="n">
-        <v>2.27</v>
+        <v>1.48</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1236,12 +1152,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-09-29 18:06</t>
+          <t>2025-07-28 20:52</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>XAUEUR</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1250,142 +1166,142 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>148.95246</v>
+        <v>2414.83832</v>
       </c>
       <c r="E11" t="n">
-        <v>149.32537</v>
+        <v>2414.84059</v>
       </c>
       <c r="F11" t="n">
-        <v>148.47825</v>
+        <v>2414.82938</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="H11" t="n">
-        <v>0.87</v>
+        <v>0.77</v>
       </c>
       <c r="I11" t="n">
-        <v>1.27</v>
+        <v>3.94</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-09-29 18:48</t>
+          <t>2025-07-28 20:59</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>XAUUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2659.183</v>
+        <v>0.58938</v>
       </c>
       <c r="E12" t="n">
-        <v>2659.17822</v>
+        <v>0.59428</v>
       </c>
       <c r="F12" t="n">
-        <v>2659.19248</v>
+        <v>0.58413</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="H12" t="n">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="I12" t="n">
-        <v>1.98</v>
+        <v>1.07</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Filled</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-09-29 18:21</t>
+          <t>2025-07-28 21:25</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>USDCAD</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.36493</v>
+        <v>1.10743</v>
       </c>
       <c r="E13" t="n">
-        <v>1.36718</v>
+        <v>1.10362</v>
       </c>
       <c r="F13" t="n">
-        <v>1.3575</v>
+        <v>1.1122</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="H13" t="n">
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
       <c r="I13" t="n">
-        <v>3.3</v>
+        <v>1.25</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Pending</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-09-29 18:51</t>
+          <t>2025-07-28 21:30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>XAUCAD</t>
+          <t>XAUEUR</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3633.91867</v>
+        <v>2412.942</v>
       </c>
       <c r="E14" t="n">
-        <v>3633.9222</v>
+        <v>2412.93763</v>
       </c>
       <c r="F14" t="n">
-        <v>3633.90959</v>
+        <v>2412.94933</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="I14" t="n">
-        <v>2.58</v>
+        <v>1.68</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1396,12 +1312,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-09-29 18:12</t>
+          <t>2025-07-28 21:35</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>XAUCAD</t>
+          <t>USDCAD</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1410,22 +1326,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3636.96432</v>
+        <v>1.3615</v>
       </c>
       <c r="E15" t="n">
-        <v>3636.96717</v>
+        <v>1.36633</v>
       </c>
       <c r="F15" t="n">
-        <v>3636.96018</v>
+        <v>1.35425</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="H15" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="I15" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1436,12 +1352,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-09-29 18:14</t>
+          <t>2025-07-28 21:07</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>XAUUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1450,26 +1366,26 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2663.17447</v>
+        <v>0.88156</v>
       </c>
       <c r="E16" t="n">
-        <v>2663.17244</v>
+        <v>0.87934</v>
       </c>
       <c r="F16" t="n">
-        <v>2663.17939</v>
+        <v>0.88597</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>2.42</v>
+        <v>1.99</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Filled</t>
         </is>
       </c>
     </row>
